--- a/配置表/GameMap.xlsx
+++ b/配置表/GameMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKuaishou\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5362EB-A0CB-43F8-8156-1C5387C6CC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE9ECA-DB9B-4D78-ADD4-F8E5D7690124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,9 +306,6 @@
     <t>{data:[{type:0,id:1041},{type:10,icon:Icon/SpecDrop/spec001,name:神秘船}]}</t>
   </si>
   <si>
-    <t>{data:[{type:2,id:531,weight:1000}]}</t>
-  </si>
-  <si>
     <t>合力击败来袭的大白鲨吧!</t>
   </si>
   <si>
@@ -456,7 +453,11 @@
     <t>突然出现的神秘机械生物袭来！</t>
   </si>
   <si>
-    <t>{data:[{type:2,id:114,weight:1500},{type:2,id:112,weight:3500},{type:2,id:240,weight:1500},{type:2,id:255,weight:500},{type:2,id:215,weight:500},{type:2,id:212,weight:1500},{type:2,id:262,weight:500},{type:2,id:510,weight:220},{type:2,id:509,weight:220},{type:2,id:506,weight:60},{type:2,id:505,weight:30}]}</t>
+    <t>{data:[{type:2,id:613,weight:1000}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{data:[{type:2,id:212,weight:1500},{type:2,id:213,weight:1500},{type:2,id:214,weight:1500},{type:2,id:509,weight:500}]}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -526,14 +527,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,7 +1156,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>104</v>
       </c>
       <c r="B7">
@@ -1197,16 +1201,16 @@
       <c r="O7">
         <v>3000</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1218,48 +1222,48 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>62</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
         <v>63</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1271,48 +1275,48 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>68</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" t="s">
         <v>69</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1324,48 +1328,48 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" t="s">
         <v>75</v>
-      </c>
-      <c r="K10" t="s">
-        <v>76</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10">
         <v>3000</v>
       </c>
       <c r="P10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s">
         <v>78</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1377,48 +1381,48 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>82</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>83</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
         <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1430,48 +1434,48 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>88</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>89</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
         <v>90</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1483,48 +1487,48 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>94</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>95</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" t="s">
         <v>96</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1536,43 +1540,43 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
         <v>99</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>100</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" t="s">
         <v>102</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
       </c>
       <c r="L14">
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O14">
         <v>1000</v>
       </c>
       <c r="P14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/GameMap.xlsx
+++ b/配置表/GameMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE9ECA-DB9B-4D78-ADD4-F8E5D7690124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABD174B-29CE-43F1-B4D8-D5F8F69A5703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>沙滩</t>
-  </si>
-  <si>
     <t>Icon/Map/map101</t>
   </si>
   <si>
@@ -243,51 +240,27 @@
     <t>一个充满夏日气息的渔场</t>
   </si>
   <si>
-    <t>樱花</t>
-  </si>
-  <si>
-    <t>Icon/Map/map201</t>
-  </si>
-  <si>
     <t>Game201</t>
   </si>
   <si>
-    <t>{data:[{id:1013801,num:8}]}</t>
-  </si>
-  <si>
     <t>粉色的渔场，真的就是浪漫吗。</t>
   </si>
   <si>
-    <t>//102</t>
-  </si>
-  <si>
-    <t>极地</t>
-  </si>
-  <si>
     <t>Icon/Map/map102</t>
   </si>
   <si>
     <t>Game102</t>
   </si>
   <si>
-    <t>{data:[{id:1011501,num:8}]}</t>
-  </si>
-  <si>
     <t>一个非常寒冷的渔场</t>
   </si>
   <si>
-    <t>深海</t>
-  </si>
-  <si>
     <t>Icon/Map/map103</t>
   </si>
   <si>
     <t>Game103</t>
   </si>
   <si>
-    <t>{data:[{id:1023801,num:8}]}</t>
-  </si>
-  <si>
     <t>神秘深海中的渔场</t>
   </si>
   <si>
@@ -300,9 +273,6 @@
     <t>Game104</t>
   </si>
   <si>
-    <t>{data:[{id:1033801,num:8}]}</t>
-  </si>
-  <si>
     <t>{data:[{type:0,id:1041},{type:10,icon:Icon/SpecDrop/spec001,name:神秘船}]}</t>
   </si>
   <si>
@@ -312,9 +282,6 @@
     <t>//202</t>
   </si>
   <si>
-    <t>化工池</t>
-  </si>
-  <si>
     <t>Icon/Map/map202</t>
   </si>
   <si>
@@ -330,9 +297,6 @@
     <t>//203</t>
   </si>
   <si>
-    <t>寂静水域</t>
-  </si>
-  <si>
     <t>Icon/Map/map203</t>
   </si>
   <si>
@@ -348,9 +312,6 @@
     <t>//204</t>
   </si>
   <si>
-    <t>深海巨怪</t>
-  </si>
-  <si>
     <t>Icon/Map/map204</t>
   </si>
   <si>
@@ -373,9 +334,6 @@
   </si>
   <si>
     <t>//301</t>
-  </si>
-  <si>
-    <t>熔岩</t>
   </si>
   <si>
     <t>Icon/Map/map301</t>
@@ -458,6 +416,62 @@
   </si>
   <si>
     <t>{data:[{type:2,id:212,weight:1500},{type:2,id:213,weight:1500},{type:2,id:214,weight:1500},{type:2,id:509,weight:500}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Map/map201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{data:[{id:1104,num:1}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙滩渔场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地渔场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海渔场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花渔场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工渔场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂静水域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海巨怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩水域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{data:[{id:1012501,num:8}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{data:[{id:1022501,num:8}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{data:[{id:1032501,num:8}]}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +833,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -956,15 +970,15 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -972,28 +986,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
         <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -1009,8 +1023,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
+      <c r="E4" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1024,34 +1038,34 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>41</v>
+      <c r="A5">
+        <v>103</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1062,120 +1076,120 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
         <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>103</v>
+      <c r="A6" s="3">
+        <v>104</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6">
+        <v>600</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>3000</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" t="s">
         <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>104</v>
+      <c r="A7" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
+      <c r="E7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1183,34 +1197,34 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>55</v>
+      <c r="J7" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L7">
-        <v>600</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O7">
-        <v>3000</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1221,14 +1235,14 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
+      <c r="E8" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1237,33 +1251,33 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1274,14 +1288,14 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>65</v>
+      <c r="E9" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1290,33 +1304,33 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1327,14 +1341,14 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>71</v>
+      <c r="E10" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1343,33 +1357,33 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>3000</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1380,14 +1394,14 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>80</v>
+      <c r="E11" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1396,33 +1410,33 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1434,13 +1448,13 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1449,33 +1463,33 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1487,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1502,33 +1516,33 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1540,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1555,28 +1569,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L14">
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O14">
         <v>1000</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="Q14" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
